--- a/soil-moisture-data.xlsx
+++ b/soil-moisture-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\pat\lstm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\pat\0000000000000000000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A319ACA1-C9D5-49B3-88DF-5FF8251D9FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4009E1F3-AFE2-4311-A0A4-ED75B744DB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6765" yWindow="3165" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>International</t>
+    <t>soil moisture data</t>
   </si>
 </sst>
 </file>
@@ -354,8 +354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A1445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1443" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A1445"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
